--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,68; 96,48</t>
+          <t>79,37; 96,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,85; 97,07</t>
+          <t>87,82; 97,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 95,93</t>
+          <t>87,01; 96,11</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,65; 97,81</t>
+          <t>94,71; 97,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,85; 95,51</t>
+          <t>91,71; 95,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,7; 96,09</t>
+          <t>93,76; 96,18</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,72; 94,77</t>
+          <t>90,77; 94,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,82; 94,69</t>
+          <t>91,88; 94,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,79; 94,36</t>
+          <t>91,71; 94,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,19; 92,79</t>
+          <t>87,13; 92,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,74; 95,83</t>
+          <t>91,73; 96,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,43; 94,05</t>
+          <t>90,16; 93,89</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,07</t>
+          <t>90,22; 93,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,07; 93,14</t>
+          <t>86,51; 93,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,05; 93,15</t>
+          <t>89,0; 93,11</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,7</t>
+          <t>91,48; 93,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,37; 93,82</t>
+          <t>91,34; 93,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,76; 93,46</t>
+          <t>91,85; 93,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,37; 96,48</t>
+          <t>80,68; 96,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,82; 97,1</t>
+          <t>87,85; 97,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,01; 96,11</t>
+          <t>87,31; 95,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,71; 97,84</t>
+          <t>94,65; 97,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,71; 95,41</t>
+          <t>91,85; 95,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,76; 96,18</t>
+          <t>93,7; 96,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,77; 94,98</t>
+          <t>90,72; 94,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 94,72</t>
+          <t>91,82; 94,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,71; 94,24</t>
+          <t>91,79; 94,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,13; 92,62</t>
+          <t>87,19; 92,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,73; 96,05</t>
+          <t>91,74; 95,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 93,89</t>
+          <t>90,43; 94,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,22; 93,93</t>
+          <t>90,09; 94,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,51; 93,21</t>
+          <t>86,07; 93,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,0; 93,11</t>
+          <t>89,05; 93,15</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,77</t>
+          <t>91,48; 93,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,34; 93,76</t>
+          <t>91,37; 93,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,85; 93,5</t>
+          <t>91,76; 93,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>94,39%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,68; 96,48</t>
+          <t>91,48; 96,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,85; 97,07</t>
+          <t>91,52; 95,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 95,93</t>
+          <t>92,65; 95,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>93,6%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,65; 97,81</t>
+          <t>91,37; 97,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,85; 95,51</t>
+          <t>91,57; 94,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,7; 96,09</t>
+          <t>92,09; 95,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>92,37%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,72; 94,77</t>
+          <t>86,52; 92,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,82; 94,69</t>
+          <t>91,96; 97,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,79; 94,36</t>
+          <t>90,39; 95,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>86,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>88,99%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,19; 92,79</t>
+          <t>90,07; 94,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,74; 95,83</t>
+          <t>65,55; 92,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,43; 94,05</t>
+          <t>75,46; 92,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,07</t>
+          <t>91,63; 94,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,07; 93,14</t>
+          <t>83,55; 93,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,05; 93,15</t>
+          <t>87,98; 93,55</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>92,62%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>92,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>92,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>91,48; 93,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>91,37; 93,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>91,76; 93,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,48; 96,87</t>
+          <t>90,95; 96,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,52; 95,03</t>
+          <t>91,47; 95,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,65; 95,63</t>
+          <t>92,45; 95,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,37; 97,27</t>
+          <t>91,42; 97,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,57; 94,51</t>
+          <t>91,54; 94,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,09; 95,7</t>
+          <t>92,1; 95,86</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,52; 92,46</t>
+          <t>85,73; 92,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,96; 97,31</t>
+          <t>91,87; 97,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,39; 95,19</t>
+          <t>90,31; 95,41</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,07; 94,09</t>
+          <t>90,26; 93,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,55; 92,93</t>
+          <t>67,27; 92,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,46; 92,9</t>
+          <t>74,06; 92,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,69</t>
+          <t>91,53; 94,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,55; 93,62</t>
+          <t>83,21; 93,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,98; 93,55</t>
+          <t>88,25; 93,4</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1675</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>546183</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>576221</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1122404</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>521468; 555601</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>563239; 585833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1099318; 1135322</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1053465</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>834674</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1888139</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1025102; 1087839</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>820002; 845921</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1857770; 1933668</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1495</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>608852</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>812375</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1421227</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>580608; 624128</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>791329; 838178</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1389598; 1468055</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>799755</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>881795</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1681550</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>783113; 814673</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>687564; 950439</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1399547; 1750959</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7492</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3008256</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3105063</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6113319</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2965068; 3063135</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2824859; 3182742</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5855033; 6196508</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>